--- a/GameAwards2020/Assets/GameMain/DataTables/Excel/UIForm.xlsx
+++ b/GameAwards2020/Assets/GameMain/DataTables/Excel/UIForm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameAwards2020\GameAwards2020\Assets\GameMain\DataTables\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F08182-CF91-4D67-BB37-FF1EE0230F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21251158-B97D-4889-95DC-67150A43B3FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>#</t>
   </si>
@@ -50,51 +50,55 @@
   </si>
   <si>
     <t>UIConfig</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>UI ID</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Note</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Resource Name</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>UIGroupName</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>isPaused</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>isMultiInstance</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start Game</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menuform</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,9 +111,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,11 +141,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,20 +451,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="29.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -469,47 +474,47 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -524,16 +529,36 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>